--- a/inputfiles/FIR.xlsx
+++ b/inputfiles/FIR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_source\gs\GrandMatch\inputfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_source\Greenshoes\GrandMatch\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA60AC1-AF9E-4080-A4F0-BE6067F4D115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A484EDEE-58A6-4F70-96D2-F2092B8FEEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39600" yWindow="3075" windowWidth="21600" windowHeight="11445" xr2:uid="{CADCF9D5-2DDC-4CEF-BE85-5206D5C2BB46}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CADCF9D5-2DDC-4CEF-BE85-5206D5C2BB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,7 +1301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>1</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>1</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>1</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>1</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>1</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>1</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:14" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="2:14" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -2511,9 +2511,19 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N50" xr:uid="{E39712DA-5FBA-4887-9B2D-9326C3A5B207}">
+    <filterColumn colId="11">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="12">
       <filters>
-        <filter val="Dennis"/>
+        <filter val="Dale"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="Debbie"/>
       </filters>
     </filterColumn>
   </autoFilter>
